--- a/template/Zabbix/blank_ZabbixServer監視設定チェックシート.xlsx
+++ b/template/Zabbix/blank_ZabbixServer監視設定チェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="985"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,17 @@
   <calcPr calcId="152511"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1541663843" val="934" rev="123" revOS="4"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1541663843" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1541663843" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1541663843"/>
+      <pm:revision xmlns:pm="smNativeData" day="1541712909" val="934" rev="123" revOS="4"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1541712909" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1541712909" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1541712909"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="99">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -148,7 +148,7 @@
     <t>ZabbixServer</t>
   </si>
   <si>
-    <t>centos7</t>
+    <t>cent7</t>
   </si>
   <si>
     <t>192.168.0.20</t>
@@ -295,7 +295,7 @@
     <t>ホストグループ</t>
   </si>
   <si>
-    <t>ホストグループ数。詳細は別シートに登録</t>
+    <t>ホストグループリスト。詳細は別シートに登録</t>
   </si>
   <si>
     <t>User</t>
@@ -304,7 +304,7 @@
     <t>ユーザ</t>
   </si>
   <si>
-    <t>ユーザリスト数。詳細は別シートに登録</t>
+    <t>ユーザリスト。詳細は別シートに登録</t>
   </si>
   <si>
     <t>UserGroup</t>
@@ -313,7 +313,7 @@
     <t>ユーザグループ</t>
   </si>
   <si>
-    <t>ユーザグループリスト数。詳細は別シートに登録</t>
+    <t>ユーザグループリスト。詳細は別シートに登録</t>
   </si>
   <si>
     <t>Action</t>
@@ -322,10 +322,21 @@
     <t>アクション</t>
   </si>
   <si>
-    <t>アクションリスト数。詳細は別シートに登録</t>
+    <t>アクションリスト。詳細は別シートに登録</t>
   </si>
   <si>
     <t>* 「ZabbixServer監視設定チェックシート.xlsx」(本ファイル)がZabbixサーバの検査シナリオになります</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(*)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>選択プラットフォーム</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -747,10 +758,10 @@
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1541663843" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1541712909" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1541663843" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1541712909" count="4">
         <pm:color name="色 24" rgb="3F3F3F"/>
         <pm:color name="色 25" rgb="CCFFFF"/>
         <pm:color name="色 26" rgb="F2F2F2"/>
@@ -1051,9 +1062,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0"/>
+    <sheetView topLeftCell="A70" zoomScale="105" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2452,6 +2463,19 @@
       <c r="N73" s="15"/>
       <c r="O73" s="15"/>
     </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C77" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C26:I26"/>
@@ -2465,7 +2489,7 @@
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541663843" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541712909" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2478,7 +2502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2807,8 +2831,18 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>利用手順!$C$76:$C$77</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B23</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541663843" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541712909" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3008,7 +3042,7 @@
   <pageSetup paperSize="9" fitToWidth="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541663843" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541712909" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3100,7 +3134,7 @@
   <pageSetup paperSize="9" fitToWidth="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541663843" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541712909" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3280,7 +3314,7 @@
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541663843" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541712909" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4027,7 +4061,7 @@
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541663843" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541712909" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/template/Zabbix/blank_ZabbixServer監視設定チェックシート.xlsx
+++ b/template/Zabbix/blank_ZabbixServer監視設定チェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="985" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="985"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="テンプレート(ZabbixServer)" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$N$72</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$N$77</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="108">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -58,9 +58,6 @@
     <t>「.\template\Zabbix\ZabbixServer監視設定チェックシート.xlsx」(本ファイル)を開きます。</t>
   </si>
   <si>
-    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
-  </si>
-  <si>
     <t>検査ドメイン</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
   </si>
   <si>
     <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
-  </si>
-  <si>
-    <t>getconfig -c .\template\Zabbix\config_zabbix_server.groovy</t>
   </si>
   <si>
     <t>5. 実行結果の参照とコミット</t>
@@ -337,6 +331,56 @@
     <rPh sb="0" eb="2">
       <t>センタク</t>
     </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>* 以下の2種類の検査シナリオがあります。用途に合わせて選択してください。</t>
+  </si>
+  <si>
+    <t>* Zabbix 監視対象サーバ用 : Zabbix監視設定チェックシート.xlsx</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>* Zabbix サーバ本体用 : ZabbixServer監視設定チェックシート.xlsx (本書の手順)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。(*)が必須入力項目となります。</t>
+    <rPh sb="40" eb="42">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(*)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Zabbix　サーバIPアドレス。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Redmine プラグインデータへのロード</t>
+  </si>
+  <si>
+    <t>Redmine チケット登録</t>
+  </si>
+  <si>
+    <t>getconfig -c .\template\Zabbix\config_zabbix_server.groovy</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>getconfig -c .\template\Zabbix\config_zabbix_server.groovy -rp {Redmineプロジェクト名}</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -438,7 +482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -637,6 +681,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -646,7 +699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,6 +794,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1062,9 +1127,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="105" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1172,63 +1237,67 @@
       <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -1245,9 +1314,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
-      <c r="B10" s="15" t="s">
-        <v>4</v>
-      </c>
+      <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -1263,7 +1330,9 @@
       <c r="O10" s="15"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
+      <c r="A11" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -1280,9 +1349,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
-        <v>5</v>
-      </c>
+      <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -1300,7 +1367,9 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="B13" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -1317,9 +1386,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
-      <c r="B14" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -1335,10 +1402,10 @@
       <c r="O14" s="15"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15" t="s">
-        <v>7</v>
-      </c>
+      <c r="A15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -1372,13 +1439,11 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>9</v>
-      </c>
+      <c r="B17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -1393,13 +1458,11 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="B18" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
@@ -1415,12 +1478,8 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
@@ -1435,12 +1494,14 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
+      <c r="B20" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="C20" s="15" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -1456,12 +1517,14 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+      <c r="B21" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="C21" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
@@ -1477,12 +1540,14 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="B22" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="C22" s="15" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
@@ -1498,9 +1563,15 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="B23" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>12</v>
+      </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -1515,11 +1586,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
-      <c r="B24" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -1535,8 +1608,12 @@
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="C25" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -1551,16 +1628,18 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
@@ -1570,28 +1649,14 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>27</v>
-      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
@@ -1601,30 +1666,16 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
-      <c r="B28" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="B28" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
@@ -1634,26 +1685,14 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
-      <c r="B29" s="17">
-        <v>1</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
@@ -1663,16 +1702,16 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
-      <c r="B30" s="17">
-        <v>2</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
@@ -1682,16 +1721,28 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
-      <c r="B31" s="17">
-        <v>3</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
@@ -1701,16 +1752,30 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
-      <c r="B32" s="17">
-        <v>4</v>
-      </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
+      <c r="B32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
@@ -1721,13 +1786,23 @@
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="17">
-        <v>5</v>
-      </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="15"/>
@@ -1740,7 +1815,7 @@
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -1759,7 +1834,7 @@
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -1778,7 +1853,7 @@
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -1797,7 +1872,7 @@
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="17">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -1816,7 +1891,7 @@
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -1834,14 +1909,16 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
+      <c r="B39" s="17">
+        <v>7</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
@@ -1850,17 +1927,17 @@
       <c r="O39" s="15"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="17">
+        <v>8</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
@@ -1870,14 +1947,16 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
+      <c r="B41" s="17">
+        <v>9</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
@@ -1887,16 +1966,16 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="15"/>
-      <c r="B42" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
+      <c r="B42" s="17">
+        <v>10</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
       <c r="J42" s="15"/>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
@@ -1922,22 +2001,22 @@
       <c r="O43" s="15"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" s="15"/>
+      <c r="A44" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="B44" s="15"/>
-      <c r="C44" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="20"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
       <c r="O44" s="15"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
@@ -1960,7 +2039,7 @@
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="15"/>
       <c r="B46" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
@@ -1996,147 +2075,147 @@
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
-      <c r="C48" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="23"/>
+      <c r="C48" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="20"/>
       <c r="O48" s="15"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="26"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
       <c r="O49" s="15"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="26"/>
+      <c r="B50" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
       <c r="O50" s="15"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
-      <c r="C51" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="29"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
       <c r="O51" s="15"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
+      <c r="C52" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="23"/>
       <c r="O52" s="15"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="15" t="s">
-        <v>47</v>
-      </c>
+      <c r="A53" s="15"/>
       <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="26"/>
       <c r="O53" s="15"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
+      <c r="C54" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="26"/>
       <c r="O54" s="15"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="15"/>
-      <c r="B55" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="29"/>
       <c r="O55" s="15"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
@@ -2157,22 +2236,22 @@
       <c r="O56" s="15"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="15"/>
+      <c r="A57" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="B57" s="15"/>
-      <c r="C57" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="20"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
       <c r="O57" s="15"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
@@ -2193,10 +2272,10 @@
       <c r="O58" s="15"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B59" s="15"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
@@ -2230,21 +2309,21 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="15"/>
-      <c r="B61" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="20"/>
       <c r="O61" s="15"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
@@ -2265,22 +2344,22 @@
       <c r="O62" s="15"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="15"/>
+      <c r="A63" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="B63" s="15"/>
-      <c r="C63" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="20"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
       <c r="O63" s="15"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
@@ -2303,7 +2382,7 @@
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="15"/>
       <c r="B65" s="15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
@@ -2321,9 +2400,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="15"/>
-      <c r="B66" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="B66" s="15"/>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
@@ -2341,42 +2418,44 @@
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
+      <c r="C67" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="20"/>
       <c r="O67" s="15"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
-      <c r="C68" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="20"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
       <c r="O68" s="15"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
+      <c r="B69" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
@@ -2394,7 +2473,7 @@
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="15"/>
       <c r="B70" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
@@ -2431,7 +2510,7 @@
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
@@ -2463,22 +2542,168 @@
       <c r="N73" s="15"/>
       <c r="O73" s="15"/>
     </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A74" s="15"/>
+      <c r="B74" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+    </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B75" t="s">
-        <v>97</v>
-      </c>
-      <c r="C75" t="s">
-        <v>98</v>
-      </c>
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C77" t="s">
-        <v>36</v>
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="20"/>
+      <c r="O77" s="15"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="20"/>
+      <c r="O80" s="15"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C85" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C30:I30"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2502,7 +2727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2520,7 +2745,7 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -2532,51 +2757,51 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -2835,7 +3060,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>利用手順!$C$76:$C$77</xm:f>
+            <xm:f>利用手順!$C$84:$C$85</xm:f>
           </x14:formula1>
           <xm:sqref>B4:B23</xm:sqref>
         </x14:dataValidation>
@@ -2889,61 +3114,61 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
@@ -3071,33 +3296,33 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -3188,120 +3413,120 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3338,18 +3563,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">

--- a/template/Zabbix/blank_ZabbixServer監視設定チェックシート.xlsx
+++ b/template/Zabbix/blank_ZabbixServer監視設定チェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="985"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,17 @@
   <calcPr calcId="152511"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1541712909" val="934" rev="123" revOS="4"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1541712909" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1541712909" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1541712909"/>
+      <pm:revision xmlns:pm="smNativeData" day="1558297832" val="944" rev="123" revOS="4"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1558297832" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1558297832" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1558297832"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="113">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -46,6 +46,18 @@
     <t>* .\template\Zabbix が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
   </si>
   <si>
+    <t>* 以下の2種類の検査シナリオがあります。用途に合わせて選択してください。</t>
+  </si>
+  <si>
+    <t>* Zabbix 監視対象サーバ用 : Zabbix監視設定チェックシート.xlsx</t>
+  </si>
+  <si>
+    <t>* Zabbix サーバ本体用 : ZabbixServer監視設定チェックシート.xlsx (本書の手順)</t>
+  </si>
+  <si>
+    <t>* 「ZabbixServer監視設定チェックシート.xlsx」(本ファイル)がZabbixサーバの検査シナリオになります</t>
+  </si>
+  <si>
     <t>1. プロジェクトディレクトリの作成と移動</t>
   </si>
   <si>
@@ -58,6 +70,12 @@
     <t>「.\template\Zabbix\ZabbixServer監視設定チェックシート.xlsx」(本ファイル)を開きます。</t>
   </si>
   <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。(*)が必須入力項目となります。</t>
+  </si>
+  <si>
+    <t>(*)</t>
+  </si>
+  <si>
     <t>検査ドメイン</t>
   </si>
   <si>
@@ -70,6 +88,12 @@
     <t>Zabbix サーバホスト名。</t>
   </si>
   <si>
+    <t>IPアドレス</t>
+  </si>
+  <si>
+    <t>Zabbix　サーバIPアドレス。</t>
+  </si>
+  <si>
     <t>ユーザID</t>
   </si>
   <si>
@@ -181,6 +205,9 @@
     <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
   </si>
   <si>
+    <t>getconfig -c .\template\Zabbix\config_zabbix_server.groovy</t>
+  </si>
+  <si>
     <t>5. 実行結果の参照とコミット</t>
   </si>
   <si>
@@ -202,9 +229,24 @@
     <t>構成管理データベースにインベントリ結果をロードする場合は、以下を実行します。</t>
   </si>
   <si>
+    <t>Redmine プラグインデータへのロード</t>
+  </si>
+  <si>
     <t>getconfig -u db</t>
   </si>
   <si>
+    <t>Redmine チケット登録</t>
+  </si>
+  <si>
+    <t>getconfig -c .\template\Zabbix\config_zabbix_server.groovy -rp {Redmineプロジェクト名}</t>
+  </si>
+  <si>
+    <t>(*)</t>
+  </si>
+  <si>
+    <t>選択プラットフォーム</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -268,6 +310,9 @@
     <t>error_msg</t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
     <t>Metric</t>
   </si>
   <si>
@@ -280,108 +325,55 @@
     <t>Y</t>
   </si>
   <si>
+    <t>バージョン</t>
+  </si>
+  <si>
     <t>Zabbixバージョン</t>
   </si>
   <si>
+    <t>ホストグループ</t>
+  </si>
+  <si>
+    <t>ホストグループ</t>
+  </si>
+  <si>
     <t>HostGroup</t>
   </si>
   <si>
-    <t>ホストグループ</t>
-  </si>
-  <si>
     <t>ホストグループリスト。詳細は別シートに登録</t>
   </si>
   <si>
+    <t>ユーザグループ</t>
+  </si>
+  <si>
+    <t>UserGroup</t>
+  </si>
+  <si>
+    <t>ユーザグループリスト。詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>ユーザ</t>
+  </si>
+  <si>
+    <t>ユーザ</t>
+  </si>
+  <si>
     <t>User</t>
   </si>
   <si>
-    <t>ユーザ</t>
-  </si>
-  <si>
     <t>ユーザリスト。詳細は別シートに登録</t>
   </si>
   <si>
-    <t>UserGroup</t>
-  </si>
-  <si>
-    <t>ユーザグループ</t>
-  </si>
-  <si>
-    <t>ユーザグループリスト。詳細は別シートに登録</t>
+    <t>アクション</t>
+  </si>
+  <si>
+    <t>アクション</t>
   </si>
   <si>
     <t>Action</t>
   </si>
   <si>
-    <t>アクション</t>
-  </si>
-  <si>
     <t>アクションリスト。詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t>* 「ZabbixServer監視設定チェックシート.xlsx」(本ファイル)がZabbixサーバの検査シナリオになります</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>(*)</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>選択プラットフォーム</t>
-    <rPh sb="0" eb="2">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>* 以下の2種類の検査シナリオがあります。用途に合わせて選択してください。</t>
-  </si>
-  <si>
-    <t>* Zabbix 監視対象サーバ用 : Zabbix監視設定チェックシート.xlsx</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>* Zabbix サーバ本体用 : ZabbixServer監視設定チェックシート.xlsx (本書の手順)</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。(*)が必須入力項目となります。</t>
-    <rPh sb="40" eb="42">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>(*)</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>IPアドレス</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Zabbix　サーバIPアドレス。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Redmine プラグインデータへのロード</t>
-  </si>
-  <si>
-    <t>Redmine チケット登録</t>
-  </si>
-  <si>
-    <t>getconfig -c .\template\Zabbix\config_zabbix_server.groovy</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>getconfig -c .\template\Zabbix\config_zabbix_server.groovy -rp {Redmineプロジェクト名}</t>
-    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -438,7 +430,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,18 +463,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -539,6 +609,43 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,13 +743,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -683,7 +783,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
@@ -699,7 +799,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -745,67 +845,61 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -823,10 +917,10 @@
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1541712909" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1558297832" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1541712909" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1558297832" count="4">
         <pm:color name="色 24" rgb="3F3F3F"/>
         <pm:color name="色 25" rgb="CCFFFF"/>
         <pm:color name="色 26" rgb="F2F2F2"/>
@@ -1129,7 +1223,7 @@
   </sheetPr>
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0"/>
+    <sheetView zoomScale="105" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1237,66 +1331,66 @@
       <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -1331,7 +1425,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -1368,7 +1462,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -1403,7 +1497,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -1440,7 +1534,7 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="15" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -1459,7 +1553,7 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -1495,13 +1589,13 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="15" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -1518,13 +1612,13 @@
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="15" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
@@ -1541,13 +1635,13 @@
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="15" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
@@ -1564,13 +1658,13 @@
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="15" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -1588,10 +1682,10 @@
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -1609,10 +1703,10 @@
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -1630,10 +1724,10 @@
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -1667,7 +1761,7 @@
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="15" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -1703,15 +1797,15 @@
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
-      <c r="C30" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="C30" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
@@ -1723,25 +1817,25 @@
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
@@ -1753,28 +1847,28 @@
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
@@ -1789,19 +1883,19 @@
         <v>1</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
@@ -2002,7 +2096,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="15" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
@@ -2039,7 +2133,7 @@
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="15"/>
       <c r="B46" s="15" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
@@ -2076,7 +2170,7 @@
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="18" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
@@ -2111,7 +2205,7 @@
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="15"/>
       <c r="B50" s="15" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
@@ -2148,7 +2242,7 @@
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="21" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
@@ -2184,7 +2278,7 @@
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="C54" s="24" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
@@ -2203,7 +2297,7 @@
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="C55" s="27" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
@@ -2237,7 +2331,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="15" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -2274,7 +2368,7 @@
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="15"/>
       <c r="B59" s="15" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
@@ -2311,7 +2405,7 @@
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="18" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
@@ -2345,7 +2439,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="15" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -2382,7 +2476,7 @@
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="15"/>
       <c r="B65" s="15" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
@@ -2419,7 +2513,7 @@
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="18" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
@@ -2454,7 +2548,7 @@
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="15"/>
       <c r="B69" s="15" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
@@ -2473,7 +2567,7 @@
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="15"/>
       <c r="B70" s="15" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
@@ -2510,7 +2604,7 @@
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="18" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
@@ -2545,7 +2639,7 @@
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="15"/>
       <c r="B74" s="15" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
@@ -2581,8 +2675,8 @@
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
-      <c r="C76" s="34" t="s">
-        <v>104</v>
+      <c r="C76" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
@@ -2600,8 +2694,8 @@
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
-      <c r="C77" s="35" t="s">
-        <v>55</v>
+      <c r="C77" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
@@ -2619,7 +2713,7 @@
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
-      <c r="C78" s="34"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
       <c r="F78" s="15"/>
@@ -2636,8 +2730,8 @@
     <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
-      <c r="C79" s="34" t="s">
-        <v>105</v>
+      <c r="C79" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
@@ -2655,8 +2749,8 @@
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
-      <c r="C80" s="35" t="s">
-        <v>107</v>
+      <c r="C80" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
@@ -2690,15 +2784,15 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C85" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2714,7 +2808,7 @@
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541712909" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1558297832" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2727,7 +2821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2744,64 +2838,64 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -3067,7 +3161,7 @@
       </x14:dataValidations>
     </ext>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541712909" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1558297832" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3114,61 +3208,61 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="13" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
@@ -3267,7 +3361,7 @@
   <pageSetup paperSize="9" fitToWidth="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541712909" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1558297832" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3296,33 +3390,33 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -3359,7 +3453,7 @@
   <pageSetup paperSize="9" fitToWidth="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541712909" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1558297832" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3370,163 +3464,184 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK9"/>
+  <dimension ref="A1:AML9"/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="71.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="3" customWidth="1"/>
+    <col min="3" max="4" width="40.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="6.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="47.625" style="3" customWidth="1"/>
-    <col min="7" max="8" width="8.5" style="3" customWidth="1"/>
-    <col min="9" max="10" width="8.5" customWidth="1"/>
-    <col min="11" max="1025" width="8.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="3" customWidth="1"/>
+    <col min="8" max="9" width="8.5" style="3" customWidth="1"/>
+    <col min="10" max="11" width="8.5" customWidth="1"/>
+    <col min="12" max="1026" width="8.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>93</v>
+        <v>112</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3539,7 +3654,7 @@
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541712909" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1558297832" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3563,18 +3678,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
@@ -4279,14 +4394,14 @@
   </sheetData>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541712909" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1558297832" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
